--- a/CashFlow/BURL_cashflow.xlsx
+++ b/CashFlow/BURL_cashflow.xlsx
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2842000000.0</v>
+        <v>36459000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2878000000.0</v>
+        <v>137400000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1830401000.0</v>
+        <v>216234000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1294427000.0</v>
+        <v>269906000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>726291000.0</v>
+        <v>176430000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>51703000.0</v>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>104607000.0</v>
+        <v>2978000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>34404000.0</v>
+        <v>2874000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
